--- a/medicine/Enfance/Frédérique_Bertrand/Frédérique_Bertrand.xlsx
+++ b/medicine/Enfance/Frédérique_Bertrand/Frédérique_Bertrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bertrand</t>
+          <t>Frédérique_Bertrand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédérique Bertrand, née le 18 octobre 1969 à Épinal, est une auteure et illustratrice française qui travaille pour l'édition jeunesse et pour la presse. Elle réalise des expositions personnelles et participe à des expositions collectives, en France et à l'étranger.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bertrand</t>
+          <t>Frédérique_Bertrand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômée de l'École nationale supérieure d'art de Nancy en 1993, elle débute dans la presse mais fait très vite la rencontre d'Olivier Douzou, créateur du département jeunesse des éditions du Rouergue[1]. Pour cet éditeur, elle réalise ses premiers livres qui rencontrent un certain succès critique : On ne copie pas (texte d'Olivier Douzou) reçoit le Prix Bologna Ragazzi à la foire du livre de jeunesse de Bologne en 1999. 
-Elle habite successivement à Paris et à Toulouse, avant de se fixer à Nancy en 2005[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômée de l'École nationale supérieure d'art de Nancy en 1993, elle débute dans la presse mais fait très vite la rencontre d'Olivier Douzou, créateur du département jeunesse des éditions du Rouergue. Pour cet éditeur, elle réalise ses premiers livres qui rencontrent un certain succès critique : On ne copie pas (texte d'Olivier Douzou) reçoit le Prix Bologna Ragazzi à la foire du livre de jeunesse de Bologne en 1999. 
+Elle habite successivement à Paris et à Toulouse, avant de se fixer à Nancy en 2005.
 En novembre 2006, elle réalise une exposition de 60 dessins inédits : C'est pour aujourd'hui ou pour demain ?, au Salon du livre et de la presse jeunesse de Montreuil.
-Depuis 2011, elle collabore avec Michaël Leblond à la série des Pyjamarama pour les éditions du Rouergue. Ces livres reprennent la technique d'animation de l'ombro-cinéma, apparue pendant la seconde moitié du XIXe siècle. La série compte huit titres en 2017 et elle est traduite en une douzaine de langues[1].
+Depuis 2011, elle collabore avec Michaël Leblond à la série des Pyjamarama pour les éditions du Rouergue. Ces livres reprennent la technique d'animation de l'ombro-cinéma, apparue pendant la seconde moitié du XIXe siècle. La série compte huit titres en 2017 et elle est traduite en une douzaine de langues.
 Ses dessins sont publiés dans la presse nationale : Libération, Télérama, Le Monde, Le Nouvel Observateur, L’Expansion, Psychologies magazine, Courrier Cadres, L’Usine nouvelle, Enjeux-Les Échos, Le Magazine littéraire, La Vie, Liaisons sociales et aussi dans la presse internationale : Wall Street Journal, The Inquirer Magazine, Boston Globe, New York Times, L’Hebdo, PME magazine, École CP (Japon), Brunswick Review (Grande-Bretagne). Elle travaille également pour la communication et le multimédia.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bertrand</t>
+          <t>Frédérique_Bertrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1995 :
 Nino dans le frigo, éditions du Rouergue, texte et illustrations.
@@ -618,7 +634,7 @@
 2017 :
 Le Havre en Pyjamarama, éditions du Rouergue, en collaboration avec Michaël Leblond.
 2019
-Les Aoûtiens[2], éditions du Rouergue, avec Olivier Douzou
+Les Aoûtiens, éditions du Rouergue, avec Olivier Douzou
 2021
 Bonjour veaux vaches cochons, éditions du Rouergue, avec Olivier Douzou.
 2022
@@ -633,7 +649,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bertrand</t>
+          <t>Frédérique_Bertrand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -651,7 +667,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Silver Pencil Award, Amsterdam pour le livre Les petits Héritages, 1997.
 Silver Award pour The Best of Newspaper Design (catégorie Art and Illustration) pour The Philadelphia Inquirer Magazine, 1998.
@@ -669,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fr%C3%A9d%C3%A9rique_Bertrand</t>
+          <t>Frédérique_Bertrand</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -687,10 +705,12 @@
           <t>Documentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>« Frédérique Bertrand », Le Biblionaute [médiathèque de Roubaix], n°6, 2006, p. 2-3.
-Thomas Scotto, « À la lettre T, il y a Frédérique Bertrand  »[3], aeiou [Office régional culturel de Champagne-Ardenne], n°12, 2008, p. 24-27.</t>
+Thomas Scotto, « À la lettre T, il y a Frédérique Bertrand  », aeiou [Office régional culturel de Champagne-Ardenne], n°12, 2008, p. 24-27.</t>
         </is>
       </c>
     </row>
